--- a/HCHNAexcelFiles/TRANSACTION.xlsx
+++ b/HCHNAexcelFiles/TRANSACTION.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhvolk\Desktop\HCHNAexcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DB1810\DataSoup\HCHNAexcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,9 +32,6 @@
     <t>OfficerCode</t>
   </si>
   <si>
-    <t>MemID</t>
-  </si>
-  <si>
     <t>EventNum</t>
   </si>
   <si>
@@ -66,6 +63,9 @@
   </si>
   <si>
     <t>TR</t>
+  </si>
+  <si>
+    <t>MemberID</t>
   </si>
 </sst>
 </file>
@@ -404,8 +404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,36 +427,36 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3">
         <v>3599</v>
@@ -470,7 +470,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3">
         <v>6682</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="3">
         <v>8904</v>
@@ -498,7 +498,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="3">
         <v>2070</v>
@@ -512,7 +512,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="3">
         <v>2070</v>
@@ -526,7 +526,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="3">
         <v>1160</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="3">
         <v>1375</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="3">
         <v>4644</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="3">
         <v>1196</v>
@@ -582,7 +582,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="3">
         <v>4852</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="3">
         <v>1145</v>
@@ -610,7 +610,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="3">
         <v>1837</v>
@@ -624,7 +624,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="3">
         <v>706</v>
@@ -638,7 +638,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="3">
         <v>5728</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="3">
         <v>183</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="3">
         <v>5269</v>
@@ -680,7 +680,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="3">
         <v>2009</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="3">
         <v>3657</v>
@@ -708,7 +708,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="3">
         <v>1074</v>
@@ -722,7 +722,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="3">
         <v>3085</v>
@@ -736,7 +736,7 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="3">
         <v>6468</v>
@@ -750,7 +750,7 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" s="3">
         <v>6314</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="3">
         <v>5155</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" s="3">
         <v>2891</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" s="3">
         <v>3538</v>
@@ -806,7 +806,7 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27" s="3">
         <v>6873</v>
@@ -820,7 +820,7 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" s="3">
         <v>1987</v>
@@ -834,7 +834,7 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E29" s="3">
         <v>1228</v>
@@ -848,7 +848,7 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E30" s="3">
         <v>2375</v>
@@ -862,7 +862,7 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E31" s="3">
         <v>1513</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E32" s="3">
         <v>169</v>
@@ -890,7 +890,7 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E33" s="3">
         <v>1147</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E34" s="3">
         <v>1076</v>
@@ -918,7 +918,7 @@
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E35" s="3">
         <v>3086</v>
@@ -932,7 +932,7 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E36" s="3">
         <v>6469</v>
@@ -946,7 +946,7 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E37" s="3">
         <v>2510</v>
@@ -960,7 +960,7 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E38" s="3">
         <v>1068</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E39" s="3">
         <v>1838</v>
@@ -988,7 +988,7 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E40" s="3">
         <v>2494</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E41" s="3">
         <v>4720</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E42" s="3">
         <v>5729</v>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E43" s="3">
         <v>6874</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E44" s="3">
         <v>2426</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E45" s="3">
         <v>3293</v>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G46" s="4">
         <v>42062</v>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E47" s="3">
         <v>1147</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E48" s="3">
         <v>732</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E49" s="3">
         <v>733</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E50" s="3">
         <v>734</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E51" s="3">
         <v>735</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E52" s="3">
         <v>736</v>
